--- a/download/data.xlsx
+++ b/download/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpStudy\PHPTutorial\WWW\index\young\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F813E7B9-AAA3-40E2-BBCF-626A590EDB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E6EDA5-B264-4FFC-AA24-5BECAE53BA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="432" windowWidth="17436" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="42">
   <si>
     <t>课程</t>
   </si>
@@ -132,20 +132,32 @@
     <t>和千惠</t>
   </si>
   <si>
-    <t>工业工程专业2018级1班团支部_“青年大学习”特辑_学习记录_11月26日12时21分</t>
-  </si>
-  <si>
-    <t>“青年大学习”特辑</t>
-  </si>
-  <si>
-    <t>杜晨扬</t>
+    <t>工业工程专业2018级1班团支部_第十二季第八期_学习记录_11月27日16时44分</t>
+  </si>
+  <si>
+    <t>第十二季第八期</t>
+  </si>
+  <si>
+    <t>吴虎</t>
+  </si>
+  <si>
+    <t>李建锋</t>
+  </si>
+  <si>
+    <t>徐升泽/1420181940</t>
+  </si>
+  <si>
+    <t>邓绍进</t>
+  </si>
+  <si>
+    <t>石开冰</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,13 +171,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,10 +195,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,15 +481,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -495,7 +500,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -535,289 +540,289 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44515.740243055552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44516.401909722219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44516.407048611109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2">
-        <v>44523.609305555554</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G6" s="2">
+        <v>44516.447199074071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44516.790092592593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44516.813564814816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44517.376608796294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44517.424351851849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2">
-        <v>44523.615798611114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2">
-        <v>44523.617268518516</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2">
-        <v>44523.623333333337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="2">
-        <v>44523.694884259261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G11" s="2">
+        <v>44517.427800925929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="2">
-        <v>44523.73846064815</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="2">
-        <v>44524.55332175926</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="G12" s="2">
+        <v>44517.468981481485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="2">
+        <v>44517.488321759258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="2">
+        <v>44517.790277777778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="2">
-        <v>44524.64675925926</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="2">
-        <v>44524.882013888891</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="2">
-        <v>44524.978344907409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="2">
-        <v>44525.351342592592</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="2">
-        <v>44525.352650462963</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G15" s="2">
-        <v>44525.591053240743</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+        <v>44518.554895833331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -833,14 +838,14 @@
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="1">
-        <v>142181923</v>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G16" s="2">
-        <v>44525.603078703702</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+        <v>44518.562708333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -857,36 +862,36 @@
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2">
+        <v>44518.582025462965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="2">
-        <v>44525.65452546296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G18" s="2">
-        <v>44525.661851851852</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+        <v>44518.619074074071</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -906,10 +911,10 @@
         <v>37</v>
       </c>
       <c r="G19" s="2">
-        <v>44525.66196759259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+        <v>44518.621006944442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -926,194 +931,286 @@
         <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="2">
+        <v>44518.695648148147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="2">
+        <v>44518.747719907406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="2">
+        <v>44518.767800925925</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="2">
+        <v>44518.768993055557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="2">
+        <v>44518.933946759258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="2">
+        <v>44518.884710648148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1">
+        <v>142181923</v>
+      </c>
+      <c r="G26" s="2">
+        <v>44518.900289351855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="2">
+        <v>44519.568784722222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="2">
+        <v>44519.589282407411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="2">
-        <v>44525.662048611113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="2">
-        <v>44525.662615740737</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="2">
-        <v>44525.803680555553</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="2">
-        <v>44525.906678240739</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="2">
-        <v>44525.905590277776</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="2">
-        <v>44525.905682870369</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="2">
-        <v>44525.925000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="2">
-        <v>44525.997488425928</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="2">
-        <v>44526.109016203707</v>
+      <c r="G29" s="2">
+        <v>44519.589409722219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="2">
+        <v>44519.593842592592</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="2">
+        <v>44519.618321759262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="2">
+        <v>44519.685115740744</v>
       </c>
     </row>
   </sheetData>

--- a/download/data.xlsx
+++ b/download/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpStudy\PHPTutorial\WWW\index\young\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E6EDA5-B264-4FFC-AA24-5BECAE53BA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0E21D2-3B0C-46EF-BCD4-424BF41D1FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="24">
   <si>
     <t>课程</t>
   </si>
@@ -60,33 +60,15 @@
     <t>工业工程专业2018级1班团支部</t>
   </si>
   <si>
-    <t>伏顺利</t>
-  </si>
-  <si>
     <t>马妍</t>
   </si>
   <si>
-    <t>李宛宛</t>
-  </si>
-  <si>
-    <t>谢伟东</t>
-  </si>
-  <si>
     <t>鲁静怡</t>
   </si>
   <si>
     <t>万宏龙</t>
   </si>
   <si>
-    <t>党苗苗</t>
-  </si>
-  <si>
-    <t>陈保华</t>
-  </si>
-  <si>
-    <t>孙厚华</t>
-  </si>
-  <si>
     <t>李宁霞</t>
   </si>
   <si>
@@ -96,61 +78,25 @@
     <t>胡奕龙</t>
   </si>
   <si>
-    <t>叶烊</t>
-  </si>
-  <si>
-    <t>季祥宁</t>
-  </si>
-  <si>
-    <t>杨紫畅</t>
-  </si>
-  <si>
-    <t>王展博</t>
-  </si>
-  <si>
     <t>简嘉通</t>
   </si>
   <si>
     <t>王国里</t>
   </si>
   <si>
-    <t>黄志君</t>
-  </si>
-  <si>
     <t>彭振华</t>
   </si>
   <si>
-    <t>刘文奇</t>
-  </si>
-  <si>
-    <t>屈俊杰</t>
-  </si>
-  <si>
-    <t>何宗泽</t>
-  </si>
-  <si>
-    <t>和千惠</t>
-  </si>
-  <si>
-    <t>工业工程专业2018级1班团支部_第十二季第八期_学习记录_11月27日16时44分</t>
-  </si>
-  <si>
-    <t>第十二季第八期</t>
-  </si>
-  <si>
     <t>吴虎</t>
   </si>
   <si>
-    <t>李建锋</t>
-  </si>
-  <si>
-    <t>徐升泽/1420181940</t>
-  </si>
-  <si>
-    <t>邓绍进</t>
-  </si>
-  <si>
-    <t>石开冰</t>
+    <t>工业工程专业2018级1班团支部_第十二季第一期_学习记录_11月28日20时37分</t>
+  </si>
+  <si>
+    <t>第十二季第一期</t>
+  </si>
+  <si>
+    <t>孙厚华18897975397工业181团</t>
   </si>
 </sst>
 </file>
@@ -481,17 +427,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -525,7 +471,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -540,15 +486,15 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2">
-        <v>44515.740243055552</v>
+        <v>44460.378472222219</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -563,15 +509,15 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2">
-        <v>44516.401909722219</v>
+        <v>44460.532164351855</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -586,15 +532,15 @@
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2">
-        <v>44516.407048611109</v>
+        <v>44460.794953703706</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -609,15 +555,15 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2">
-        <v>44516.447199074071</v>
+        <v>44460.848032407404</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -631,16 +577,16 @@
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
+      <c r="F7" s="1">
+        <v>142181923</v>
       </c>
       <c r="G7" s="2">
-        <v>44516.790092592593</v>
+        <v>44460.881863425922</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -658,12 +604,12 @@
         <v>16</v>
       </c>
       <c r="G8" s="2">
-        <v>44516.813564814816</v>
+        <v>44460.894942129627</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -678,15 +624,15 @@
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G9" s="2">
-        <v>44517.376608796294</v>
+        <v>44461.633657407408</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -700,16 +646,16 @@
       <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
+      <c r="F10" s="1">
+        <v>1420181924</v>
       </c>
       <c r="G10" s="2">
-        <v>44517.424351851849</v>
+        <v>44463.872673611113</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -724,15 +670,15 @@
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="2">
-        <v>44517.427800925929</v>
+        <v>44463.874085648145</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -746,16 +692,16 @@
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>20</v>
+      <c r="F12" s="1">
+        <v>1420181927</v>
       </c>
       <c r="G12" s="2">
-        <v>44517.468981481485</v>
+        <v>44463.896828703706</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -769,16 +715,16 @@
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>21</v>
+      <c r="F13" s="1">
+        <v>1420181926</v>
       </c>
       <c r="G13" s="2">
-        <v>44517.488321759258</v>
+        <v>44463.905439814815</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
@@ -793,15 +739,15 @@
         <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G14" s="2">
-        <v>44517.790277777778</v>
+        <v>44463.951215277775</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
@@ -816,15 +762,15 @@
         <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G15" s="2">
-        <v>44518.554895833331</v>
+        <v>44463.95212962963</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
@@ -838,16 +784,16 @@
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>24</v>
+      <c r="F16" s="1">
+        <v>1420181935</v>
       </c>
       <c r="G16" s="2">
-        <v>44518.562708333331</v>
+        <v>44463.958622685182</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
@@ -862,15 +808,15 @@
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G17" s="2">
-        <v>44518.582025462965</v>
+        <v>44464.837881944448</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
@@ -885,332 +831,10 @@
         <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G18" s="2">
-        <v>44518.619074074071</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="2">
-        <v>44518.621006944442</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="2">
-        <v>44518.695648148147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="2">
-        <v>44518.747719907406</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="2">
-        <v>44518.767800925925</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="2">
-        <v>44518.768993055557</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="2">
-        <v>44518.933946759258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="2">
-        <v>44518.884710648148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1">
-        <v>142181923</v>
-      </c>
-      <c r="G26" s="2">
-        <v>44518.900289351855</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="2">
-        <v>44519.568784722222</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="2">
-        <v>44519.589282407411</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="2">
-        <v>44519.589409722219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="2">
-        <v>44519.593842592592</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="2">
-        <v>44519.618321759262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="2">
-        <v>44519.685115740744</v>
+        <v>44464.958124999997</v>
       </c>
     </row>
   </sheetData>
